--- a/dmsan/reclaimer/scores/China/sys_uncertainties.xlsx
+++ b/dmsan/reclaimer/scores/China/sys_uncertainties.xlsx
@@ -19539,7 +19539,7 @@
         <v>145.6397987397367</v>
       </c>
       <c r="I12" t="n">
-        <v>38.75350793602879</v>
+        <v>38.75350793602878</v>
       </c>
     </row>
     <row r="13">
